--- a/WerkUren.xlsx
+++ b/WerkUren.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>fix close/start program bug</t>
+  </si>
+  <si>
+    <t>make setup file</t>
   </si>
 </sst>
 </file>
@@ -426,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,12 +926,17 @@
       <c r="B38" s="2">
         <v>0.56319444444444444</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>0.65</v>
+      </c>
       <c r="D38" s="2">
         <f>C38-B38</f>
-        <v>-0.56319444444444444</v>
+        <v>8.680555555555558E-2</v>
       </c>
       <c r="F38" s="4"/>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -949,22 +957,24 @@
       <c r="D40" s="2"/>
       <c r="E40" s="5">
         <f>SUM(D37:D39)</f>
-        <v>-0.52569444444444458</v>
+        <v>0.12430555555555545</v>
       </c>
       <c r="F40" s="10">
         <f>E40*24</f>
-        <v>-12.616666666666671</v>
+        <v>2.9833333333333307</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43662</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2">
+        <v>0.5180555555555556</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2">
         <f>C42-B42</f>
-        <v>0</v>
+        <v>-0.5180555555555556</v>
       </c>
       <c r="F42" s="4"/>
     </row>
@@ -999,11 +1009,11 @@
       <c r="D45" s="2"/>
       <c r="E45" s="5">
         <f>SUM(D42:D44)</f>
-        <v>0</v>
+        <v>-0.5180555555555556</v>
       </c>
       <c r="F45" s="10">
         <f>E45*24</f>
-        <v>0</v>
+        <v>-12.433333333333334</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1315,7 +1325,7 @@
       <c r="D77" s="2"/>
       <c r="G77" s="4">
         <f>SUM(F1:F76)</f>
-        <v>29.250000000000004</v>
+        <v>32.416666666666671</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,7 +1334,7 @@
       </c>
       <c r="G78" s="4">
         <f>G77*20</f>
-        <v>585.00000000000011</v>
+        <v>648.33333333333348</v>
       </c>
     </row>
   </sheetData>
